--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/141.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/141.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2970384770361393</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.9421783753121</v>
+        <v>-1.959476295069141</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04206786157936721</v>
+        <v>0.03874479212445901</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2930920178810882</v>
+        <v>-0.2950368019381787</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2796091856559221</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.047646409206981</v>
+        <v>-2.06973036660602</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02334566490964497</v>
+        <v>0.01836106072728267</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2945111846254515</v>
+        <v>-0.2955813998760876</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2800821729841264</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.172549143239947</v>
+        <v>-2.199171660129577</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05116104108954658</v>
+        <v>0.04927027881181982</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3072530243148117</v>
+        <v>-0.3119237181576286</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2977471205112706</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.3155776442975</v>
+        <v>-2.351156096176763</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07030227156135962</v>
+        <v>0.06884076342236002</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3369547826281674</v>
+        <v>-0.3401333073220756</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.3149631290339407</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.514037601150446</v>
+        <v>-2.558560307634616</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1034409830807144</v>
+        <v>0.1059405854123501</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3177157289342635</v>
+        <v>-0.3220053502253532</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.314134043234101</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.445556965542556</v>
+        <v>-2.493753883047497</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2301030750632258</v>
+        <v>0.2345211805863155</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3807284844417011</v>
+        <v>-0.3840836749546093</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2879583244867376</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.309202344308547</v>
+        <v>-2.361986002891078</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3229767341259281</v>
+        <v>0.3275452246023814</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.4019751042606045</v>
+        <v>-0.4076284104686029</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2389217538849213</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.031900520570576</v>
+        <v>-2.08658370171938</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4407296126577147</v>
+        <v>0.4485218893188944</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3493885521703459</v>
+        <v>-0.3592774578900705</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1719074328228939</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.67804545533008</v>
+        <v>-1.733052767155065</v>
       </c>
       <c r="F10" t="n">
-        <v>0.518907887685421</v>
+        <v>0.53267614118269</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2652605811721866</v>
+        <v>-0.2753976950673657</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.0875827380036367</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.119003261657776</v>
+        <v>-1.171274443360398</v>
       </c>
       <c r="F11" t="n">
-        <v>0.499814838800608</v>
+        <v>0.5140809686968768</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2150918687204728</v>
+        <v>-0.2258232221886518</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.01307985907871941</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5479740731591107</v>
+        <v>-0.5991385384088243</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4034414444639974</v>
+        <v>0.4182638526829026</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1152625405526815</v>
+        <v>-0.1249908409824061</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1279723924843131</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01700905619510121</v>
+        <v>-0.03907723116906555</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2657472291065799</v>
+        <v>0.2807725840101213</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01035269694864845</v>
+        <v>-0.0001844701234396269</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.250607477562629</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6147483644688498</v>
+        <v>0.5597410526438645</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01702320475588965</v>
+        <v>-0.005918078976438088</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1522299500865194</v>
+        <v>0.1414372745985223</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.3696241875665575</v>
       </c>
       <c r="E15" t="n">
-        <v>1.152249008607887</v>
+        <v>1.100925398116265</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2375780693685577</v>
+        <v>-0.2285038704835601</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3057364862684782</v>
+        <v>0.2945875590462994</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.478926893046004</v>
       </c>
       <c r="E16" t="n">
-        <v>1.702218463443285</v>
+        <v>1.654426709283571</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6207735310199094</v>
+        <v>-0.6175512048832739</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4621163970933453</v>
+        <v>0.4550541444776199</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.5823913089907705</v>
       </c>
       <c r="E17" t="n">
-        <v>2.305727881772305</v>
+        <v>2.261816935438226</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8384623212301237</v>
+        <v>-0.8307693278391257</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5969883394910364</v>
+        <v>0.5925483332465831</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.6863300867726667</v>
       </c>
       <c r="E18" t="n">
-        <v>2.784684977610176</v>
+        <v>2.739021973567007</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.143329122900405</v>
+        <v>-1.142515876113769</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7590726582070838</v>
+        <v>0.7523301561232674</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.7903851114150412</v>
       </c>
       <c r="E19" t="n">
-        <v>3.219376335427877</v>
+        <v>3.173038789166708</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.432185037205782</v>
+        <v>-1.434759101990055</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9407230813893986</v>
+        <v>0.9342010465673095</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.8864044060207235</v>
       </c>
       <c r="E20" t="n">
-        <v>3.532918742854339</v>
+        <v>3.488017883914624</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.707477104746618</v>
+        <v>-1.70857360086289</v>
       </c>
       <c r="G20" t="n">
-        <v>1.121896068845986</v>
+        <v>1.11653477225617</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.9679780569949467</v>
       </c>
       <c r="E21" t="n">
-        <v>3.900579292818422</v>
+        <v>3.856281433740252</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.974276072542637</v>
+        <v>-1.975981408712818</v>
       </c>
       <c r="G21" t="n">
-        <v>1.253570505924587</v>
+        <v>1.246100899891498</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.032570073760678</v>
       </c>
       <c r="E22" t="n">
-        <v>4.254617594094327</v>
+        <v>4.209542989431793</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.250679966704699</v>
+        <v>-2.257500581361379</v>
       </c>
       <c r="G22" t="n">
-        <v>1.408332683464728</v>
+        <v>1.399718399728366</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.081115586220299</v>
       </c>
       <c r="E23" t="n">
-        <v>4.370374586885841</v>
+        <v>4.321277549732854</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.545260729574529</v>
+        <v>-2.555765775588617</v>
       </c>
       <c r="G23" t="n">
-        <v>1.544963983811964</v>
+        <v>1.539408500826056</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.117651933185908</v>
       </c>
       <c r="E24" t="n">
-        <v>4.566643011554334</v>
+        <v>4.519089245233438</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.862611672446126</v>
+        <v>-2.879205849023348</v>
       </c>
       <c r="G24" t="n">
-        <v>1.624389139909306</v>
+        <v>1.620159380589943</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.145696057796349</v>
       </c>
       <c r="E25" t="n">
-        <v>4.590256369328601</v>
+        <v>4.542299629734614</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.087464188614383</v>
+        <v>-3.10756686075406</v>
       </c>
       <c r="G25" t="n">
-        <v>1.7133776110021</v>
+        <v>1.707677583255193</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.169839586809514</v>
       </c>
       <c r="E26" t="n">
-        <v>4.64453219706004</v>
+        <v>4.592583685985509</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.227758019597664</v>
+        <v>-3.252633588946521</v>
       </c>
       <c r="G26" t="n">
-        <v>1.833789237107432</v>
+        <v>1.829902589089432</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.191921476228291</v>
       </c>
       <c r="E27" t="n">
-        <v>4.636509232800497</v>
+        <v>4.587172747760602</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.363606734168173</v>
+        <v>-3.392744913918438</v>
       </c>
       <c r="G27" t="n">
-        <v>1.882642446229237</v>
+        <v>1.875067716733602</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.212345396613642</v>
       </c>
       <c r="E28" t="n">
-        <v>4.586663190976874</v>
+        <v>4.53874295258516</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.4338642483027</v>
+        <v>-3.468249110867645</v>
       </c>
       <c r="G28" t="n">
-        <v>1.86461961259506</v>
+        <v>1.859519664613515</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.229259130678174</v>
       </c>
       <c r="E29" t="n">
-        <v>4.489413767785718</v>
+        <v>4.441001493187368</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.491971972248729</v>
+        <v>-3.52343308851163</v>
       </c>
       <c r="G29" t="n">
-        <v>1.904029230664867</v>
+        <v>1.898282481379051</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.239541127423991</v>
       </c>
       <c r="E30" t="n">
-        <v>4.438425968355005</v>
+        <v>4.396129835209471</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.602264005035972</v>
+        <v>-3.635438487733555</v>
       </c>
       <c r="G30" t="n">
-        <v>1.929819520142678</v>
+        <v>1.92384500335468</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.242561557219591</v>
       </c>
       <c r="E31" t="n">
-        <v>4.248197762638601</v>
+        <v>4.213406276680338</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.55007312597835</v>
+        <v>-3.581398457768796</v>
       </c>
       <c r="G31" t="n">
-        <v>1.914233506772228</v>
+        <v>1.910627187987684</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.237353799597106</v>
       </c>
       <c r="E32" t="n">
-        <v>4.131560360848269</v>
+        <v>4.10212725138364</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.475805589762143</v>
+        <v>-3.504929169031498</v>
       </c>
       <c r="G32" t="n">
-        <v>1.825268396448888</v>
+        <v>1.819365422017345</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.223220192313216</v>
       </c>
       <c r="E33" t="n">
-        <v>3.90539599147033</v>
+        <v>3.88221188783479</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.480994600677232</v>
+        <v>-3.511602318830997</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786285112421626</v>
+        <v>1.782122515314445</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.201551314543384</v>
       </c>
       <c r="E34" t="n">
-        <v>3.738430731986375</v>
+        <v>3.718864627520107</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.442901945985424</v>
+        <v>-3.471911641503689</v>
       </c>
       <c r="G34" t="n">
-        <v>1.68868089754438</v>
+        <v>1.684286152790744</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.172084125022402</v>
       </c>
       <c r="E35" t="n">
-        <v>3.640686352492401</v>
+        <v>3.624034504015587</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.354128101961994</v>
+        <v>-3.38138062960285</v>
       </c>
       <c r="G35" t="n">
-        <v>1.623378786630397</v>
+        <v>1.620855823529307</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.13621656699651</v>
       </c>
       <c r="E36" t="n">
-        <v>3.435860585963092</v>
+        <v>3.419048132196278</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.276361560495924</v>
+        <v>-3.293613488738101</v>
       </c>
       <c r="G36" t="n">
-        <v>1.52775001682015</v>
+        <v>1.523818107311333</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.094399665879294</v>
       </c>
       <c r="E37" t="n">
-        <v>3.261713349919957</v>
+        <v>3.248438592677415</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.197607296496354</v>
+        <v>-3.213868582108849</v>
       </c>
       <c r="G37" t="n">
-        <v>1.402971386874911</v>
+        <v>1.400171014636548</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.047350801346799</v>
       </c>
       <c r="E38" t="n">
-        <v>3.140998033811717</v>
+        <v>3.124524311201994</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.079101763173704</v>
+        <v>-3.092678020347018</v>
       </c>
       <c r="G38" t="n">
-        <v>1.344916954684199</v>
+        <v>1.339995132569746</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.9963103895558993</v>
       </c>
       <c r="E39" t="n">
-        <v>2.816093532141804</v>
+        <v>2.804583973041171</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.947041143375058</v>
+        <v>-2.958730288390873</v>
       </c>
       <c r="G39" t="n">
-        <v>1.213781275351143</v>
+        <v>1.208138189479781</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.9413331222674731</v>
       </c>
       <c r="E40" t="n">
-        <v>2.563550473905417</v>
+        <v>2.552924243899784</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.842944824661585</v>
+        <v>-2.851999312897356</v>
       </c>
       <c r="G40" t="n">
-        <v>1.189394092088695</v>
+        <v>1.184568633148242</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.8844164671507179</v>
       </c>
       <c r="E41" t="n">
-        <v>2.389270373486009</v>
+        <v>2.37583793104965</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.758508053492199</v>
+        <v>-2.765243985359606</v>
       </c>
       <c r="G41" t="n">
-        <v>1.068598473335455</v>
+        <v>1.062673598182548</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.8275559915938835</v>
       </c>
       <c r="E42" t="n">
-        <v>2.161987607270434</v>
+        <v>2.144970746770893</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.661205338545725</v>
+        <v>-2.661375434148316</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9748093641197532</v>
+        <v>0.9698641812358454</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.7721481033315278</v>
       </c>
       <c r="E43" t="n">
-        <v>2.045804280436375</v>
+        <v>2.030352591490288</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.586158136648972</v>
+        <v>-2.587375086732745</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8695428168614178</v>
+        <v>0.8640471958472374</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.7194944843028874</v>
       </c>
       <c r="E44" t="n">
-        <v>1.840042623080794</v>
+        <v>1.822422762719707</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.574000316195976</v>
+        <v>-2.577779650679293</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7949051584541651</v>
+        <v>0.7893306948430756</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.6690172773279647</v>
       </c>
       <c r="E45" t="n">
-        <v>1.603344006726948</v>
+        <v>1.582230251284317</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.466592608412323</v>
+        <v>-2.467846789722413</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6926594506959198</v>
+        <v>0.6856716605328308</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.6209165211103456</v>
       </c>
       <c r="E46" t="n">
-        <v>1.409440859965727</v>
+        <v>1.385274143965006</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.421667658679107</v>
+        <v>-2.42458848488497</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6697191750915623</v>
+        <v>0.6625065375224733</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.5745672457631396</v>
       </c>
       <c r="E47" t="n">
-        <v>1.129622643343075</v>
+        <v>1.104429513534446</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.360083560228624</v>
+        <v>-2.361112894132715</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5593234788898647</v>
+        <v>0.5531095142149572</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.5294261117299662</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9734573595875716</v>
+        <v>0.946299005048579</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.309022758393365</v>
+        <v>-2.308768710025547</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4724345569517971</v>
+        <v>0.4653445634223445</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.4865431338831248</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7507649845698132</v>
+        <v>0.7211026475549122</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.247972307520109</v>
+        <v>-2.248108822016609</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3977662375346354</v>
+        <v>0.3917303987268188</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.4457160467823458</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6285823201302098</v>
+        <v>0.5946522625455825</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.198846069405304</v>
+        <v>-2.197941569612986</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3238133416820188</v>
+        <v>0.3171088008485661</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.4082608489575013</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4658073986671625</v>
+        <v>0.4238164155726283</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.150519207620271</v>
+        <v>-2.153873668109134</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2657516092508526</v>
+        <v>0.2613554044491265</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.3740102659993119</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3487071616320122</v>
+        <v>0.3027448477302063</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.073933115035701</v>
+        <v>-2.0759487114252</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2343050934688611</v>
+        <v>0.2264193737298631</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.3422702761000448</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2153376087198661</v>
+        <v>0.1678495445630607</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.023931578090396</v>
+        <v>-2.024596629995805</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1362482636834328</v>
+        <v>0.1306927806975252</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3129715944325457</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1773705181638763</v>
+        <v>0.1268017525352536</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.975197362888</v>
+        <v>-1.975556534718364</v>
       </c>
       <c r="G54" t="n">
-        <v>0.07576869161372179</v>
+        <v>0.06542571093772458</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.284724624587773</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.009563819059437109</v>
+        <v>-0.06606330003333102</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.963664443017912</v>
+        <v>-1.962841705918685</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03332363356291501</v>
+        <v>0.02190459744391808</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.2583751032162442</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.1285708789013142</v>
+        <v>-0.1864019237341169</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.854490807068305</v>
+        <v>-1.850261047748943</v>
       </c>
       <c r="G56" t="n">
-        <v>0.006229521139922287</v>
+        <v>-0.005605628684983626</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2336131799005838</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.283901015148818</v>
+        <v>-0.3432432097557112</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.774537113562054</v>
+        <v>-1.771517734110055</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.04583433373379101</v>
+        <v>-0.05603130960069736</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.2115145784413237</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3226974130204439</v>
+        <v>-0.3849626239053363</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.761776293247512</v>
+        <v>-1.760405308090149</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.129022033761405</v>
+        <v>-0.1395431403044931</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.192166135292666</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.5556028244341087</v>
+        <v>-0.6245404550944538</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.718231818984251</v>
+        <v>-1.715631473334343</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1492641404937632</v>
+        <v>-0.1609810264233055</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1753217072062953</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.5765194733844667</v>
+        <v>-0.6482341155137201</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.647126016908907</v>
+        <v>-1.641621635606181</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1917004382560246</v>
+        <v>-0.2011980510873856</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.1607349385287684</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.7164680029942473</v>
+        <v>-0.7979036453127709</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.653986782888087</v>
+        <v>-1.649057660533179</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.236262566038649</v>
+        <v>-0.247951711054464</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.1470105815217953</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.8839603398390204</v>
+        <v>-0.9699849133072701</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.592304131191467</v>
+        <v>-1.586326694307286</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2918655774847249</v>
+        <v>-0.3031269284099037</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.1333171857545925</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.9589454896919094</v>
+        <v>-1.049532713444249</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.626946692244457</v>
+        <v>-1.621332807334913</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3510019053107999</v>
+        <v>-0.3617551595003425</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.1191056961220641</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.159591138536946</v>
+        <v>-1.255967452969739</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.593231261729194</v>
+        <v>-1.587719580186013</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3931096922526068</v>
+        <v>-0.4075466477755121</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.1038818965875619</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.330278060604628</v>
+        <v>-1.432046332637146</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.539898625064481</v>
+        <v>-1.530507595743756</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.450788892083955</v>
+        <v>-0.4642461553378605</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.0876963252094996</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.455656770315231</v>
+        <v>-1.56081673406293</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.57291615259229</v>
+        <v>-1.563081268651929</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.4502150931842279</v>
+        <v>-0.466300443001769</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.07036924445498287</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.595151224968739</v>
+        <v>-1.70309404037771</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.538402075771299</v>
+        <v>-1.526940698257666</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5006290937152144</v>
+        <v>-0.5179817652756642</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.05210383859507918</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.744054229520062</v>
+        <v>-1.855385816548032</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.570623877089563</v>
+        <v>-1.55328142586575</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.5117575802641204</v>
+        <v>-0.529434382500752</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.03396404620194443</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.843284937970581</v>
+        <v>-1.956758415547914</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.586106227045559</v>
+        <v>-1.566956236285201</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.5176415740704825</v>
+        <v>-0.536582777953841</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.01725452083350391</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.968204462556593</v>
+        <v>-2.086071224839471</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.594428501163739</v>
+        <v>-1.572770147783199</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5986377419136426</v>
+        <v>-0.6196113327395461</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.00310232074178472</v>
       </c>
       <c r="E71" t="n">
-        <v>-2.044454014056209</v>
+        <v>-2.16387791762804</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.607354306912554</v>
+        <v>-1.583548222790287</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.6400096646176314</v>
+        <v>-0.6649691867317157</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.008138089707344347</v>
       </c>
       <c r="E72" t="n">
-        <v>-2.12992741937014</v>
+        <v>-2.248849796422745</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.605851917427009</v>
+        <v>-1.583174450479015</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6479742269535385</v>
+        <v>-0.6681112102233512</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.01606120743548732</v>
       </c>
       <c r="E73" t="n">
-        <v>-2.115446662404508</v>
+        <v>-2.233525131660567</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.596249181133102</v>
+        <v>-1.575263909922471</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6979589733457977</v>
+        <v>-0.7211007355867006</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.02022652475592969</v>
       </c>
       <c r="E74" t="n">
-        <v>-2.158956095513587</v>
+        <v>-2.275875286585465</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.584926508188105</v>
+        <v>-1.561367172193202</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6966551504006162</v>
+        <v>-0.7184668088307014</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.02037925179860904</v>
       </c>
       <c r="E75" t="n">
-        <v>-2.056919174632342</v>
+        <v>-2.172423579104129</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.538200589134754</v>
+        <v>-1.511480249023034</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7179046903157015</v>
+        <v>-0.7397937312946047</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.01595840047024194</v>
       </c>
       <c r="E76" t="n">
-        <v>-2.035984275080847</v>
+        <v>-2.147311481964545</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.423897804241785</v>
+        <v>-1.393357978324247</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7198888956712464</v>
+        <v>-0.7415399488113315</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.006031205764838367</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.886636685885842</v>
+        <v>-1.994204998959495</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.437376968217054</v>
+        <v>-1.407279536871062</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.6803537134656207</v>
+        <v>-0.7024457011291602</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.009787350446560979</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.738723593940155</v>
+        <v>-1.841578141752309</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.401183836091518</v>
+        <v>-1.369519773143981</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.6895242755246181</v>
+        <v>-0.7124908319946119</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.0307616795067869</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.572478138165017</v>
+        <v>-1.668544922402537</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.347565030000987</v>
+        <v>-1.312377871010087</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6621410735796255</v>
+        <v>-0.6829131777689835</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.05519872069097953</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.376806873165706</v>
+        <v>-1.47024557083959</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.335414509788445</v>
+        <v>-1.30108731912309</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5939217865800075</v>
+        <v>-0.6132265424380022</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.08078107028638402</v>
       </c>
       <c r="E81" t="n">
-        <v>-1.218597522082931</v>
+        <v>-1.306647182253271</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.22241992798493</v>
+        <v>-1.188981906606939</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5368149256002955</v>
+        <v>-0.5555298220295632</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.1058154739863206</v>
       </c>
       <c r="E82" t="n">
-        <v>-1.001657736543353</v>
+        <v>-1.08685884288833</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.19189178245212</v>
+        <v>-1.160941683021037</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4976403752731242</v>
+        <v>-0.5147448386581196</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.1288009669533194</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.7331694931061519</v>
+        <v>-0.8132195497864031</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.106370925575233</v>
+        <v>-1.074416313057606</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4683576507618594</v>
+        <v>-0.4849700779402186</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.1491951843025827</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.4249109997206892</v>
+        <v>-0.4960985644891246</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.043209245162523</v>
+        <v>-1.008536023099623</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.4135854066795104</v>
+        <v>-0.42872026518987</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.1661169501621267</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.19863420663975</v>
+        <v>-0.2620134342180057</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.982877137949994</v>
+        <v>-0.9511955544253661</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3763950617078841</v>
+        <v>-0.3866679600755177</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.1786050756465407</v>
       </c>
       <c r="E86" t="n">
-        <v>0.06729457249408771</v>
+        <v>0.01138057080464818</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9296306441226446</v>
+        <v>-0.8959400344249264</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.285420925211454</v>
+        <v>-0.29671001705036</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1864154584443588</v>
       </c>
       <c r="E87" t="n">
-        <v>0.3171540623393843</v>
+        <v>0.267167855899034</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.825726321733127</v>
+        <v>-0.7944243507121355</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2211350077687439</v>
+        <v>-0.230728983774105</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1905861855127684</v>
       </c>
       <c r="E88" t="n">
-        <v>0.5224704050272382</v>
+        <v>0.4744873845676147</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6921158608859811</v>
+        <v>-0.667201600262715</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1900213829514796</v>
+        <v>-0.1988021121702045</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1918008350114943</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8019717912141632</v>
+        <v>0.7599793480715381</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5366105188675683</v>
+        <v>-0.5136921439845744</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1134827419298638</v>
+        <v>-0.1213451008994071</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.189037296705339</v>
       </c>
       <c r="E90" t="n">
-        <v>1.049847075703915</v>
+        <v>1.011190842449016</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.3994024995244234</v>
+        <v>-0.3778916110010655</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.06035889214215074</v>
+        <v>-0.06676996330933084</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.181381036995836</v>
       </c>
       <c r="E91" t="n">
-        <v>1.22664575908014</v>
+        <v>1.191757909947877</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.220349501895835</v>
+        <v>-0.1986137659664773</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.03564903825161192</v>
+        <v>-0.03884654357070198</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1692696024989143</v>
       </c>
       <c r="E92" t="n">
-        <v>1.346518627439926</v>
+        <v>1.318858016357661</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.0719662744648749</v>
+        <v>-0.05081601781997148</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.03689153917697523</v>
+        <v>-0.03994303968697441</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1538545519510504</v>
       </c>
       <c r="E93" t="n">
-        <v>1.44975862794808</v>
+        <v>1.427802424756995</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09504716660608026</v>
+        <v>0.1114172258013486</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.03647980561533897</v>
+        <v>-0.03931083886361094</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1361025030811732</v>
       </c>
       <c r="E94" t="n">
-        <v>1.453321145289897</v>
+        <v>1.442064174508991</v>
       </c>
       <c r="F94" t="n">
-        <v>0.233202757160225</v>
+        <v>0.2475229088358575</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.05783592904106051</v>
+        <v>-0.06174301773233219</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1174254939542727</v>
       </c>
       <c r="E95" t="n">
-        <v>1.493114756007614</v>
+        <v>1.487058476526525</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3987561501402714</v>
+        <v>0.4106161207827228</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.08150914878705415</v>
+        <v>-0.08291663514669013</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.09812826876860024</v>
       </c>
       <c r="E96" t="n">
-        <v>1.431459845224721</v>
+        <v>1.432182569029721</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4416669635320781</v>
+        <v>0.4522756729606207</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1180702130314989</v>
+        <v>-0.1201975030999528</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.07822861329542247</v>
       </c>
       <c r="E97" t="n">
-        <v>1.360116055310559</v>
+        <v>1.361139549022286</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5194933669698754</v>
+        <v>0.5285179242197821</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1533975366391258</v>
+        <v>-0.1568943518168521</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.05561857928583525</v>
       </c>
       <c r="E98" t="n">
-        <v>1.268525778519765</v>
+        <v>1.269098117371401</v>
       </c>
       <c r="F98" t="n">
-        <v>0.544238262014596</v>
+        <v>0.5531182745035027</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1932261885110242</v>
+        <v>-0.1949986868933873</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.03126417563080583</v>
       </c>
       <c r="E99" t="n">
-        <v>1.2060313400846</v>
+        <v>1.211068505998235</v>
       </c>
       <c r="F99" t="n">
-        <v>0.569009437924953</v>
+        <v>0.5745532405261333</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2163139289725634</v>
+        <v>-0.215599965456109</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.001828671173173477</v>
       </c>
       <c r="E100" t="n">
-        <v>1.109065166223081</v>
+        <v>1.111280059176989</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5426176086336874</v>
+        <v>0.5470503146376862</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.2327146491777408</v>
+        <v>-0.2319189229681956</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.02886741521223771</v>
       </c>
       <c r="E101" t="n">
-        <v>1.020790658646741</v>
+        <v>1.025338708449921</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5280492487826004</v>
+        <v>0.5314438605939631</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.2245851014075612</v>
+        <v>-0.223292958847107</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.0672538998636418</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9522939625098501</v>
+        <v>0.956533942165849</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4685552091742527</v>
+        <v>0.4735412734047059</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2512543398360995</v>
+        <v>-0.2507885844950996</v>
       </c>
     </row>
   </sheetData>
